--- a/maps/CA/CA20C_candidates.xlsx
+++ b/maps/CA/CA20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/CA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F5581A-DABA-1743-A5D5-B2A183EE901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2CB218-5FC6-9D4B-AB70-0534ECBF5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="1640" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
